--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Dept_id</t>
   </si>
   <si>
-    <t>AP 31 XS 0001</t>
-  </si>
-  <si>
-    <t>AP 31 XS 0002</t>
-  </si>
-  <si>
     <t>AP 31 XS 0003</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Phone no</t>
+  </si>
+  <si>
+    <t>AHA8208</t>
+  </si>
+  <si>
+    <t>MH14EU3498</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -498,13 +498,13 @@
         <v>250024</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>8247032129</v>
@@ -518,13 +518,13 @@
         <v>250025</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>9393398750</v>
@@ -538,13 +538,13 @@
         <v>250026</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>9393398750</v>
@@ -558,13 +558,13 @@
         <v>250027</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>9393398750</v>
@@ -578,13 +578,13 @@
         <v>250028</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>9393398750</v>
@@ -598,13 +598,13 @@
         <v>250029</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>9393398750</v>
@@ -618,13 +618,13 @@
         <v>250030</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>9393398750</v>
@@ -638,13 +638,13 @@
         <v>250031</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>9393398750</v>
@@ -658,13 +658,13 @@
         <v>250032</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>9393398750</v>
@@ -678,13 +678,13 @@
         <v>250033</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>9393398750</v>
@@ -698,13 +698,13 @@
         <v>250034</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>9393398750</v>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -733,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
